--- a/tests/test-receipts/Hou_receipts/receipts-2025-10-27.xlsx
+++ b/tests/test-receipts/Hou_receipts/receipts-2025-10-27.xlsx
@@ -188,7 +188,7 @@
     <t>25314000000004261032</t>
   </si>
   <si>
-    <t>上海市嘉定区南翔镇川湘融合餐饮店</t>
+    <t>上海市嘉定区南翔镇川湘融合餐饮店（个体工商户）</t>
   </si>
   <si>
     <t>92310114MAEHYKKK9R</t>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1515,7 +1515,7 @@
         <v>59</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R13" t="s">
         <v>28</v>
@@ -1897,11 +1897,11 @@
         <v>73</v>
       </c>
       <c r="D20" s="11">
-        <f>SUM(B2:B19)</f>
+        <f>SUM(D2:D19)</f>
         <v>38636.880000000005</v>
       </c>
       <c r="I20" s="11">
-        <f>SUM(F2:F19)</f>
+        <f>SUM(I2:I19)</f>
         <v>4249.62</v>
       </c>
     </row>
